--- a/client/src/assets/Inmoov.xlsx
+++ b/client/src/assets/Inmoov.xlsx
@@ -119,7 +119,7 @@
     <t>Current</t>
   </si>
   <si>
-    <t>range_min_max_rest</t>
+    <t>range</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,6 +242,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -591,7 +594,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -620,7 +623,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -642,12 +645,12 @@
       <c r="H3" s="6">
         <v>180</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -669,12 +672,12 @@
       <c r="H4" s="6">
         <v>180</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -696,12 +699,12 @@
       <c r="H5" s="6">
         <v>180</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -723,12 +726,12 @@
       <c r="H6" s="6">
         <v>180</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -750,23 +753,23 @@
       <c r="H7" s="6">
         <v>180</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -790,12 +793,12 @@
       <c r="H9" s="6">
         <v>90</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -817,12 +820,12 @@
       <c r="H10" s="6">
         <v>180</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -844,12 +847,12 @@
       <c r="H11" s="6">
         <v>180</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -871,23 +874,23 @@
       <c r="H12" s="6">
         <v>80</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -909,12 +912,12 @@
       <c r="H14" s="9">
         <v>160</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
@@ -934,20 +937,20 @@
       <c r="H15" s="9">
         <v>150</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -972,23 +975,23 @@
       <c r="H17" s="9">
         <v>25</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1010,12 +1013,12 @@
       <c r="H19" s="9">
         <v>120</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1038,7 @@
       <c r="H20" s="9">
         <v>120</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>31</v>
       </c>
     </row>
